--- a/code/src/backend/temp/violations_output.xlsx
+++ b/code/src/backend/temp/violations_output.xlsx
@@ -151,50 +151,278 @@
   <commentList>
     <comment ref="A2" authorId="0" shapeId="0">
       <text>
-        <t>Violation: Customer ID: Contains a decimal; Obligor Name: Contains a comma, and the borrowing entity is not an individual; Country: Invalid country code; Industry Code: Invalid Code; Taxpayer ID (TIN): Invalid format; CUSIP: Invalid CUSIP; Origination Date: Invalid format; Loan Amount: Contains a decimal; Outstanding Balance: Contains a decimal; Interest Rate: Invalid format; Collateral Type: NaN value is not allowed;
-Remediation: Customer ID: Remove the decimal and keep only the integer part; Obligor Name: Remove the comma; Country: Correct the country code to a valid two-letter code; Industry Code: Correct the Industry Code to a valid numeric code; Taxpayer ID (TIN): Correct the format to either ##-####### or ######### or 'NA'; CUSIP: Correct the CUSIP to a valid 6-digit CUSIP or set it to 'NA' if it is not applicable; Origination Date: Correct the format to yyyy-mm-dd; Loan Amount: Remove the decimal and keep only the integer part; Outstanding Balance: Remove the decimal and keep only the integer part; Interest Rate: Input interest rate as a decimal (e.g., 0.0976); Collateral Type: Replace NaN with a valid predefined code;</t>
+        <t>Violation: Invalid format, contains a decimal and is not a string.
+Remediation: Remove the decimal and convert to string.</t>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a 2-letter ISO 3166-1 alpha-2 code.
+Remediation: Correct the country code to a valid ISO 3166-1 alpha-2 code.</t>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Potentially valid, requires NAICS/SIC/GICS lookup verification.
+Remediation: Verify the code against NAICS/SIC/GICS databases.</t>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format.
+Remediation: Ensure the format matches the requirements.</t>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format.
+Remediation: Ensure the format matches the requirements.</t>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a decimal.
+Remediation: Convert to decimal format (e.g., 0.0976).</t>
+      </text>
+    </comment>
+    <comment ref="T2" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be an integer based on the predefined codes.
+Remediation: Convert to integer based on the predefined codes.</t>
+      </text>
+    </comment>
+    <comment ref="Y2" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be an integer based on the predefined codes.
+Remediation: Convert to integer based on the predefined codes.</t>
       </text>
     </comment>
     <comment ref="A3" authorId="0" shapeId="0">
       <text>
-        <t>Violation: Customer ID: Contains a decimal; Obligor Name: Contains a comma, and the borrowing entity is not an individual; Country: Invalid country code; Industry Code: Invalid Code; CUSIP: Invalid CUSIP; Origination Date: Invalid format; Loan Amount: Contains a decimal; Outstanding Balance: Contains a decimal; Interest Rate: Invalid format;
-Remediation: Customer ID: Remove the decimal and keep only the integer part; Obligor Name: Remove the comma; Country: Correct the country code to a valid two-letter code; Industry Code: Correct the Industry Code to a valid numeric code; CUSIP: Correct the CUSIP to a valid 6-digit CUSIP or set it to 'NA' if it is not applicable; Origination Date: Correct the format to yyyy-mm-dd; Loan Amount: Remove the decimal and keep only the integer part; Outstanding Balance: Remove the decimal and keep only the integer part; Interest Rate: Input interest rate as a decimal (e.g., 0.0214);</t>
+        <t>Violation: Invalid format, contains a decimal and is not a string.
+Remediation: Remove the decimal and convert to string.</t>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Potentially valid, requires NAICS/SIC/GICS lookup verification.
+Remediation: Verify the code against NAICS/SIC/GICS databases.</t>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format.
+Remediation: Ensure the format matches the requirements.</t>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format.
+Remediation: Ensure the format matches the requirements.</t>
       </text>
     </comment>
     <comment ref="A4" authorId="0" shapeId="0">
       <text>
-        <t>Violation: Customer ID: Contains a decimal; Obligor Name: Contains a comma, and the borrowing entity is not an individual; Country: Invalid country code; Industry Code: Invalid Code; Loan Amount: Contains a decimal; Outstanding Balance: Contains a decimal; Interest Rate: Invalid format; Loan to Value Ratio: Value is greater than 1; Total Assets: Contains a decimal; Total Liabilities: Contains a decimal;
-Remediation: Customer ID: Remove the decimal and keep only the integer part; Obligor Name: Remove the comma; Country: Correct the country code to a valid two-letter code; Industry Code: Correct the Industry Code to a valid numeric code; Loan Amount: Remove the decimal and keep only the integer part; Outstanding Balance: Remove the decimal and keep only the integer part; Interest Rate: Input interest rate as a decimal (e.g., 0.029); Loan to Value Ratio: Correct the value to be less than or equal to 1; Total Assets: Remove the decimal and keep only the integer part; Total Liabilities: Remove the decimal and keep only the integer part;</t>
+        <t>Violation: Invalid format, contains a decimal and is not a string.
+Remediation: Remove the decimal and convert to string.</t>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a 2-letter ISO 3166-1 alpha-2 code.
+Remediation: Correct the country code to a valid ISO 3166-1 alpha-2 code.</t>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Potentially valid, requires NAICS/SIC/GICS lookup verification.
+Remediation: Verify the code against NAICS/SIC/GICS databases.</t>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format.
+Remediation: Ensure the format matches the requirements.</t>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format.
+Remediation: Ensure the format matches the requirements.</t>
+      </text>
+    </comment>
+    <comment ref="S4" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a decimal.
+Remediation: Convert to decimal format (e.g., 0.029).</t>
       </text>
     </comment>
     <comment ref="A5" authorId="0" shapeId="0">
       <text>
-        <t>Violation: Customer ID: Contains a decimal; Country: Invalid country code; Industry Code: Invalid Code; Loan Amount: Contains a decimal; Outstanding Balance: Contains a decimal; Interest Rate: Invalid format; Total Assets: Contains a decimal; Total Liabilities: Contains a decimal;
-Remediation: Customer ID: Remove the decimal and keep only the integer part; Country: Correct the country code to a valid two-letter code; Industry Code: Correct the Industry Code to a valid numeric code; Loan Amount: Remove the decimal and keep only the integer part; Outstanding Balance: Remove the decimal and keep only the integer part; Interest Rate: Input interest rate as a decimal (e.g., 0.089); Total Assets: Remove the decimal and keep only the integer part; Total Liabilities: Remove the decimal and keep only the integer part;</t>
+        <t>Violation: Invalid format, contains a decimal and is not a string.
+Remediation: Remove the decimal and convert to string.</t>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a 2-letter ISO 3166-1 alpha-2 code.
+Remediation: Correct the country code to a valid ISO 3166-1 alpha-2 code.</t>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Potentially valid, requires NAICS/SIC/GICS lookup verification.
+Remediation: Verify the code against NAICS/SIC/GICS databases.</t>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format.
+Remediation: Ensure the format matches the requirements.</t>
+      </text>
+    </comment>
+    <comment ref="K5" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format.
+Remediation: Ensure the format matches the requirements.</t>
+      </text>
+    </comment>
+    <comment ref="M5" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be yyyy-mm-dd.
+Remediation: Change date format to yyyy-mm-dd.</t>
+      </text>
+    </comment>
+    <comment ref="N5" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be yyyy-mm-dd.
+Remediation: Change date format to yyyy-mm-dd.</t>
       </text>
     </comment>
     <comment ref="A6" authorId="0" shapeId="0">
       <text>
-        <t>Violation: Customer ID: Contains a decimal; Country: Invalid country code; Industry Code: Invalid Code; Obligor Name: Contains a comma, and the borrowing entity is not an individual; Loan Amount: Contains a decimal; Outstanding Balance: Contains a decimal; Interest Rate: Invalid format; Total Liabilities: Contains a decimal;
-Remediation: Customer ID: Remove the decimal and keep only the integer part; Country: Correct the country code to a valid two-letter code; Industry Code: Correct the Industry Code to a valid numeric code; Obligor Name: Remove the comma; Loan Amount: Remove the decimal and keep only the integer part; Outstanding Balance: Remove the decimal and keep only the integer part; Interest Rate: Input interest rate as a decimal (e.g., 0.1018); Total Liabilities: Remove the decimal and keep only the integer part;</t>
+        <t>Violation: Invalid format, contains a decimal and is not a string.
+Remediation: Remove the decimal and convert to string.</t>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a 2-letter ISO 3166-1 alpha-2 code.
+Remediation: Correct the country code to a valid ISO 3166-1 alpha-2 code.</t>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Potentially valid, requires NAICS/SIC/GICS lookup verification.
+Remediation: Verify the code against NAICS/SIC/GICS databases.</t>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format.
+Remediation: Ensure the format matches the requirements.</t>
+      </text>
+    </comment>
+    <comment ref="K6" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format.
+Remediation: Ensure the format matches the requirements.</t>
       </text>
     </comment>
     <comment ref="A7" authorId="0" shapeId="0">
       <text>
-        <t>Violation: Customer ID: Contains a decimal; Country: Invalid country code; Industry Code: Invalid Code; Loan Amount: Contains a decimal; Outstanding Balance: Contains a decimal; Loan to Value Ratio: Value is greater than 1; Total Assets: Contains a decimal; Total Liabilities: Contains a decimal;
-Remediation: Customer ID: Remove the decimal and keep only the integer part; Country: Correct the country code to a valid two-letter code; Industry Code: Correct the Industry Code to a valid numeric code; Loan Amount: Remove the decimal and keep only the integer part; Outstanding Balance: Remove the decimal and keep only the integer part; Loan to Value Ratio: Correct the value to be less than or equal to 1; Total Assets: Remove the decimal and keep only the integer part; Total Liabilities: Remove the decimal and keep only the integer part;</t>
+        <t>Violation: Invalid format, contains a decimal and is not a string.
+Remediation: Remove the decimal and convert to string.</t>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a 2-letter ISO 3166-1 alpha-2 code.
+Remediation: Correct the country code to a valid ISO 3166-1 alpha-2 code.</t>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Potentially valid, requires NAICS/SIC/GICS lookup verification.
+Remediation: Verify the code against NAICS/SIC/GICS databases.</t>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format.
+Remediation: Ensure the format matches the requirements.</t>
+      </text>
+    </comment>
+    <comment ref="K7" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format.
+Remediation: Ensure the format matches the requirements.</t>
+      </text>
+    </comment>
+    <comment ref="S7" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a decimal.
+Remediation: Convert to decimal format (e.g., 0.0512).</t>
       </text>
     </comment>
     <comment ref="A8" authorId="0" shapeId="0">
       <text>
-        <t>Violation: Customer ID: Contains a decimal; Collateral Type: NaN value is not allowed; Loan Amount: Contains a decimal; Outstanding Balance: Contains a decimal; Loan to Value Ratio: Value is greater than 1; Total Assets: Contains a decimal; Total Liabilities: Contains a decimal;
-Remediation: Customer ID: Remove the decimal and keep only the integer part; Collateral Type: Replace NaN with a valid predefined code; Loan Amount: Remove the decimal and keep only the integer part; Outstanding Balance: Remove the decimal and keep only the integer part; Loan to Value Ratio: Correct the value to be less than or equal to 1; Total Assets: Remove the decimal and keep only the integer part; Total Liabilities: Remove the decimal and keep only the integer part;</t>
+        <t>Violation: Invalid format, contains a decimal and is not a string.
+Remediation: Remove the decimal and convert to string.</t>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Potentially valid, requires NAICS/SIC/GICS lookup verification.
+Remediation: Verify the code against NAICS/SIC/GICS databases.</t>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format.
+Remediation: Ensure the format matches the requirements.</t>
+      </text>
+    </comment>
+    <comment ref="K8" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format.
+Remediation: Ensure the format matches the requirements.</t>
+      </text>
+    </comment>
+    <comment ref="S8" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a decimal.
+Remediation: Convert to decimal format (e.g., 0.0655).</t>
+      </text>
+    </comment>
+    <comment ref="T8" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be an integer based on the predefined codes.
+Remediation: Convert to integer based on the predefined codes.</t>
       </text>
     </comment>
     <comment ref="A9" authorId="0" shapeId="0">
       <text>
-        <t>Violation: Customer ID: Contains a decimal; Obligor Name: Contains a comma, and the borrowing entity is not an individual; Loan Amount: Contains a decimal; Outstanding Balance: Contains a decimal; Total Assets: Contains a decimal; Total Liabilities: Contains a decimal; Total Revenue: Contains a decimal;
-Remediation: Customer ID: Remove the decimal and keep only the integer part; Obligor Name: Remove the comma; Loan Amount: Remove the decimal and keep only the integer part; Outstanding Balance: Remove the decimal and keep only the integer part; Total Assets: Remove the decimal and keep only the integer part; Total Liabilities: Remove the decimal and keep only the integer part; Total Revenue: Remove the decimal and keep only the integer part;</t>
+        <t>Violation: Invalid format, contains a decimal and is not a string.
+Remediation: Remove the decimal and convert to string.</t>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Potentially valid, requires NAICS/SIC/GICS lookup verification.
+Remediation: Verify the code against NAICS/SIC/GICS databases.</t>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format.
+Remediation: Ensure the format matches the requirements.</t>
+      </text>
+    </comment>
+    <comment ref="K9" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format.
+Remediation: Ensure the format matches the requirements.</t>
       </text>
     </comment>
   </commentList>
@@ -704,17 +932,17 @@
       <c r="A2" s="2" t="n">
         <v>92052700000000</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>f05b48d8-dbe1-40fe-93f7-927b760a1f11</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Phillips, Martin and Torres</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Danielleport</t>
         </is>
@@ -727,7 +955,7 @@
       <c r="F2" s="2" t="n">
         <v>8317</v>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -737,8 +965,7 @@
           <t>373-55-4532</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr"/>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>rFo</t>
         </is>
@@ -748,57 +975,57 @@
           <t>FKHpte</t>
         </is>
       </c>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>3b531ed9-6ace-4faf-8683-85598b2e2fd2</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>14-08-2024</t>
         </is>
       </c>
-      <c r="N2" s="2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>25-02-2031</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Term Loan</t>
         </is>
       </c>
-      <c r="P2" s="2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>Acquisition</t>
         </is>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" t="n">
         <v>26629895.3</v>
       </c>
-      <c r="R2" s="2" t="n">
+      <c r="R2" t="n">
         <v>70799498.06999999</v>
       </c>
       <c r="S2" s="2" t="n">
         <v>4.53</v>
       </c>
       <c r="T2" s="2" t="inlineStr"/>
-      <c r="U2" s="2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>Closed</t>
         </is>
       </c>
-      <c r="V2" s="2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>Annually</t>
         </is>
       </c>
-      <c r="W2" s="2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="X2" s="2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>CCC</t>
         </is>
@@ -808,57 +1035,57 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="Z2" s="2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>Retained</t>
         </is>
       </c>
-      <c r="AA2" s="2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>b9f97aa6-8245-46d9-9eea-24fe3d70f8de</t>
         </is>
       </c>
-      <c r="AB2" s="2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>Juarez-Jones</t>
         </is>
       </c>
-      <c r="AC2" s="2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="AD2" s="2" t="n">
+      <c r="AD2" t="n">
         <v>0.99</v>
       </c>
-      <c r="AE2" s="2" t="n">
+      <c r="AE2" t="n">
         <v>1.75</v>
       </c>
-      <c r="AF2" s="2" t="n">
+      <c r="AF2" t="n">
         <v>50399385.08</v>
       </c>
-      <c r="AG2" s="2" t="n">
+      <c r="AG2" t="n">
         <v>95469736.56</v>
       </c>
-      <c r="AH2" s="2" t="n">
+      <c r="AH2" t="n">
         <v>59033485.2</v>
       </c>
-      <c r="AI2" s="2" t="n">
+      <c r="AI2" t="n">
         <v>7797067.51</v>
       </c>
-      <c r="AJ2" s="2" t="n">
+      <c r="AJ2" t="n">
         <v>238515116</v>
       </c>
-      <c r="AK2" s="2" t="n">
+      <c r="AK2" t="n">
         <v>34200502.62</v>
       </c>
-      <c r="AL2" s="2" t="n">
+      <c r="AL2" t="n">
         <v>23820711.26</v>
       </c>
-      <c r="AM2" s="2" t="n">
+      <c r="AM2" t="n">
         <v>5.48</v>
       </c>
-      <c r="AN2" s="2" t="n">
+      <c r="AN2" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -866,22 +1093,22 @@
       <c r="A3" s="2" t="n">
         <v>95384400000000</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>4c78e161-7f3e-4858-8569-63ded30ecb0f</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Armstrong, Griffith and Dickerson</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>West Justin</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>AO</t>
         </is>
@@ -889,7 +1116,7 @@
       <c r="F3" s="2" t="n">
         <v>3522</v>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>E</t>
         </is>
@@ -899,12 +1126,12 @@
           <t>313-51-2957</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>LSE</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>nYQ</t>
         </is>
@@ -914,117 +1141,116 @@
           <t>UZKcBa</t>
         </is>
       </c>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>b10f0d6a-b4ad-405c-9a4f-4f02119be381</t>
         </is>
       </c>
-      <c r="M3" s="2" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>18-02-2022</t>
         </is>
       </c>
-      <c r="N3" s="2" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>29-10-2033</t>
         </is>
       </c>
-      <c r="O3" s="2" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Revolving</t>
         </is>
       </c>
-      <c r="P3" s="2" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>Working Capital</t>
         </is>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="Q3" t="n">
         <v>55748379.42</v>
       </c>
-      <c r="R3" s="2" t="n">
+      <c r="R3" t="n">
         <v>2783436.06</v>
       </c>
-      <c r="S3" s="2" t="n">
+      <c r="S3" t="n">
         <v>9.76</v>
       </c>
-      <c r="T3" s="2" t="inlineStr"/>
-      <c r="U3" s="2" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>Closed</t>
         </is>
       </c>
-      <c r="V3" s="2" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="W3" s="2" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="X3" s="2" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="Y3" s="2" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Z3" s="2" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>Retained</t>
         </is>
       </c>
-      <c r="AA3" s="2" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>eef807cf-9d5f-4f5c-91cd-116b1d2c1ef2</t>
         </is>
       </c>
-      <c r="AB3" s="2" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>Hood-Cruz</t>
         </is>
       </c>
-      <c r="AC3" s="2" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AD3" s="2" t="n">
+      <c r="AD3" t="n">
         <v>1.37</v>
       </c>
-      <c r="AE3" s="2" t="n">
+      <c r="AE3" t="n">
         <v>2</v>
       </c>
-      <c r="AF3" s="2" t="n">
+      <c r="AF3" t="n">
         <v>435705344.2</v>
       </c>
-      <c r="AG3" s="2" t="n">
+      <c r="AG3" t="n">
         <v>47117668.95</v>
       </c>
-      <c r="AH3" s="2" t="n">
+      <c r="AH3" t="n">
         <v>80132376.18000001</v>
       </c>
-      <c r="AI3" s="2" t="n">
+      <c r="AI3" t="n">
         <v>7141931.68</v>
       </c>
-      <c r="AJ3" s="2" t="n">
+      <c r="AJ3" t="n">
         <v>319616293</v>
       </c>
-      <c r="AK3" s="2" t="n">
+      <c r="AK3" t="n">
         <v>156044133.2</v>
       </c>
-      <c r="AL3" s="2" t="n">
+      <c r="AL3" t="n">
         <v>21245173.43</v>
       </c>
-      <c r="AM3" s="2" t="n">
+      <c r="AM3" t="n">
         <v>3.1</v>
       </c>
-      <c r="AN3" s="2" t="n">
+      <c r="AN3" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1032,17 +1258,17 @@
       <c r="A4" s="2" t="n">
         <v>85207400000000</v>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>d8eba8b3-4a74-472c-9c35-5e776788c5b1</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Liu, Weaver and Choi</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Kimberlyfort</t>
         </is>
@@ -1055,7 +1281,7 @@
       <c r="F4" s="2" t="n">
         <v>9984</v>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -1065,12 +1291,12 @@
           <t>310-37-1725</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>vmj</t>
         </is>
@@ -1080,121 +1306,121 @@
           <t>LpWDlN</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>9f03c0f0-d92d-4245-815c-53bdf1ca667e</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>20-06-2020</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>21-11-2034</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Bridge Loan</t>
         </is>
       </c>
-      <c r="P4" s="2" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>Expansion</t>
         </is>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="Q4" t="n">
         <v>97602997.48</v>
       </c>
-      <c r="R4" s="2" t="n">
+      <c r="R4" t="n">
         <v>80537734.2</v>
       </c>
       <c r="S4" s="2" t="n">
         <v>2.14</v>
       </c>
-      <c r="T4" s="2" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>Equipment</t>
         </is>
       </c>
-      <c r="U4" s="2" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>Closed</t>
         </is>
       </c>
-      <c r="V4" s="2" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>Quarterly</t>
         </is>
       </c>
-      <c r="W4" s="2" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>GBP</t>
         </is>
       </c>
-      <c r="X4" s="2" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="Y4" s="2" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Z4" s="2" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>Disposed</t>
         </is>
       </c>
-      <c r="AA4" s="2" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>80fa2009-8fb3-48db-a114-3d01e35f4029</t>
         </is>
       </c>
-      <c r="AB4" s="2" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>Carlson-Cole</t>
         </is>
       </c>
-      <c r="AC4" s="2" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AD4" s="2" t="n">
+      <c r="AD4" t="n">
         <v>0.8</v>
       </c>
-      <c r="AE4" s="2" t="n">
+      <c r="AE4" t="n">
         <v>2.38</v>
       </c>
-      <c r="AF4" s="2" t="n">
+      <c r="AF4" t="n">
         <v>403948022.4</v>
       </c>
-      <c r="AG4" s="2" t="n">
+      <c r="AG4" t="n">
         <v>8926425.41</v>
       </c>
-      <c r="AH4" s="2" t="n">
+      <c r="AH4" t="n">
         <v>86863480.34</v>
       </c>
-      <c r="AI4" s="2" t="n">
+      <c r="AI4" t="n">
         <v>1955854.73</v>
       </c>
-      <c r="AJ4" s="2" t="n">
+      <c r="AJ4" t="n">
         <v>451241665.5</v>
       </c>
-      <c r="AK4" s="2" t="n">
+      <c r="AK4" t="n">
         <v>160851816.4</v>
       </c>
-      <c r="AL4" s="2" t="n">
+      <c r="AL4" t="n">
         <v>7161645.8</v>
       </c>
-      <c r="AM4" s="2" t="n">
+      <c r="AM4" t="n">
         <v>1.06</v>
       </c>
-      <c r="AN4" s="2" t="n">
+      <c r="AN4" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1202,17 +1428,17 @@
       <c r="A5" s="2" t="n">
         <v>99329700000000</v>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>d4cf2ac2-82e7-4ebc-b4be-efeecd8605fe</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Luna, Knapp and Powers</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Port Nicholas</t>
         </is>
@@ -1225,7 +1451,7 @@
       <c r="F5" s="2" t="n">
         <v>6392</v>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>E</t>
         </is>
@@ -1235,12 +1461,12 @@
           <t>447-80-2607</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>HYY</t>
         </is>
@@ -1250,7 +1476,7 @@
           <t>YoVYBg</t>
         </is>
       </c>
-      <c r="L5" s="2" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>d101c317-a06e-4a8f-8e63-d921c33b1a59</t>
         </is>
@@ -1265,106 +1491,106 @@
           <t>19-11-2029</t>
         </is>
       </c>
-      <c r="O5" s="2" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>Bridge Loan</t>
         </is>
       </c>
-      <c r="P5" s="2" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>Expansion</t>
         </is>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="Q5" t="n">
         <v>19714396.46</v>
       </c>
-      <c r="R5" s="2" t="n">
+      <c r="R5" t="n">
         <v>39263759.32</v>
       </c>
-      <c r="S5" s="2" t="n">
+      <c r="S5" t="n">
         <v>2.9</v>
       </c>
-      <c r="T5" s="2" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>Real Estate</t>
         </is>
       </c>
-      <c r="U5" s="2" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>Closed</t>
         </is>
       </c>
-      <c r="V5" s="2" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>Annually</t>
         </is>
       </c>
-      <c r="W5" s="2" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>INR</t>
         </is>
       </c>
-      <c r="X5" s="2" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>CCC</t>
         </is>
       </c>
-      <c r="Y5" s="2" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Z5" s="2" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>Retained</t>
         </is>
       </c>
-      <c r="AA5" s="2" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>9b5c021d-a121-4ae0-9675-dcec92ad211f</t>
         </is>
       </c>
-      <c r="AB5" s="2" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>Perez, Smith and Davidson</t>
         </is>
       </c>
-      <c r="AC5" s="2" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="AD5" s="2" t="n">
+      <c r="AD5" t="n">
         <v>1.36</v>
       </c>
-      <c r="AE5" s="2" t="n">
+      <c r="AE5" t="n">
         <v>2.9</v>
       </c>
-      <c r="AF5" s="2" t="n">
+      <c r="AF5" t="n">
         <v>92416015.06</v>
       </c>
-      <c r="AG5" s="2" t="n">
+      <c r="AG5" t="n">
         <v>213720317.6</v>
       </c>
-      <c r="AH5" s="2" t="n">
+      <c r="AH5" t="n">
         <v>59098537.91</v>
       </c>
-      <c r="AI5" s="2" t="n">
+      <c r="AI5" t="n">
         <v>6667902.48</v>
       </c>
-      <c r="AJ5" s="2" t="n">
+      <c r="AJ5" t="n">
         <v>22780570.2</v>
       </c>
-      <c r="AK5" s="2" t="n">
+      <c r="AK5" t="n">
         <v>100793798.8</v>
       </c>
-      <c r="AL5" s="2" t="n">
+      <c r="AL5" t="n">
         <v>10891482.19</v>
       </c>
-      <c r="AM5" s="2" t="n">
+      <c r="AM5" t="n">
         <v>9.06</v>
       </c>
-      <c r="AN5" s="2" t="n">
+      <c r="AN5" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1372,17 +1598,17 @@
       <c r="A6" s="2" t="n">
         <v>38638400000000</v>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>ba43160f-9404-4e4d-b32a-855e8dfcc560</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Clark-Oconnor</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>South Carolynmouth</t>
         </is>
@@ -1395,7 +1621,7 @@
       <c r="F6" s="2" t="n">
         <v>2999</v>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1405,12 +1631,12 @@
           <t>705-09-9417</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>EfQ</t>
         </is>
@@ -1420,121 +1646,121 @@
           <t>tXIESl</t>
         </is>
       </c>
-      <c r="L6" s="2" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>202d945b-3f59-4946-a1d0-1be5c8f89198</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>03-11-2024</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>02-12-2028</t>
         </is>
       </c>
-      <c r="O6" s="2" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>Term Loan</t>
         </is>
       </c>
-      <c r="P6" s="2" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>Refinancing</t>
         </is>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="Q6" t="n">
         <v>17232454.13</v>
       </c>
-      <c r="R6" s="2" t="n">
+      <c r="R6" t="n">
         <v>86223792.98999999</v>
       </c>
-      <c r="S6" s="2" t="n">
+      <c r="S6" t="n">
         <v>8.9</v>
       </c>
-      <c r="T6" s="2" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>Equipment</t>
         </is>
       </c>
-      <c r="U6" s="2" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="V6" s="2" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>Quarterly</t>
         </is>
       </c>
-      <c r="W6" s="2" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>GBP</t>
         </is>
       </c>
-      <c r="X6" s="2" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>BB</t>
         </is>
       </c>
-      <c r="Y6" s="2" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Z6" s="2" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>Disposed</t>
         </is>
       </c>
-      <c r="AA6" s="2" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>f4c91d34-bc75-4713-9c85-fccdad2546a7</t>
         </is>
       </c>
-      <c r="AB6" s="2" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>Martinez-Burnett</t>
         </is>
       </c>
-      <c r="AC6" s="2" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="AD6" s="2" t="n">
+      <c r="AD6" t="n">
         <v>0.83</v>
       </c>
-      <c r="AE6" s="2" t="n">
+      <c r="AE6" t="n">
         <v>2.52</v>
       </c>
-      <c r="AF6" s="2" t="n">
+      <c r="AF6" t="n">
         <v>133472482.2</v>
       </c>
-      <c r="AG6" s="2" t="n">
+      <c r="AG6" t="n">
         <v>294279690.6</v>
       </c>
-      <c r="AH6" s="2" t="n">
+      <c r="AH6" t="n">
         <v>70419654.54000001</v>
       </c>
-      <c r="AI6" s="2" t="n">
+      <c r="AI6" t="n">
         <v>4335752.01</v>
       </c>
-      <c r="AJ6" s="2" t="n">
+      <c r="AJ6" t="n">
         <v>391850032.4</v>
       </c>
-      <c r="AK6" s="2" t="n">
+      <c r="AK6" t="n">
         <v>123734826.9</v>
       </c>
-      <c r="AL6" s="2" t="n">
+      <c r="AL6" t="n">
         <v>8270642.73</v>
       </c>
-      <c r="AM6" s="2" t="n">
+      <c r="AM6" t="n">
         <v>3.86</v>
       </c>
-      <c r="AN6" s="2" t="n">
+      <c r="AN6" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -1542,17 +1768,17 @@
       <c r="A7" s="2" t="n">
         <v>82114400000000</v>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>6185f8a7-1161-4807-81be-01d3e12de6e9</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Perry Inc</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Martinfort</t>
         </is>
@@ -1565,7 +1791,7 @@
       <c r="F7" s="2" t="n">
         <v>1022</v>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1575,12 +1801,12 @@
           <t>395-40-9958</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>NASDAQ</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>YUZ</t>
         </is>
@@ -1590,121 +1816,121 @@
           <t>gkvikH</t>
         </is>
       </c>
-      <c r="L7" s="2" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>9f25f5ef-eca1-41ed-9093-3fe8c43ec459</t>
         </is>
       </c>
-      <c r="M7" s="2" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>31-08-2023</t>
         </is>
       </c>
-      <c r="N7" s="2" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>26-04-2027</t>
         </is>
       </c>
-      <c r="O7" s="2" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>Revolving</t>
         </is>
       </c>
-      <c r="P7" s="2" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>Refinancing</t>
         </is>
       </c>
-      <c r="Q7" s="2" t="n">
+      <c r="Q7" t="n">
         <v>15850912.22</v>
       </c>
-      <c r="R7" s="2" t="n">
+      <c r="R7" t="n">
         <v>76069643.34999999</v>
       </c>
       <c r="S7" s="2" t="n">
         <v>10.18</v>
       </c>
-      <c r="T7" s="2" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>Real Estate</t>
         </is>
       </c>
-      <c r="U7" s="2" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>Closed</t>
         </is>
       </c>
-      <c r="V7" s="2" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="W7" s="2" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>INR</t>
         </is>
       </c>
-      <c r="X7" s="2" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>CCC</t>
         </is>
       </c>
-      <c r="Y7" s="2" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Z7" s="2" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>Disposed</t>
         </is>
       </c>
-      <c r="AA7" s="2" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>288d2a87-d2f6-4bd5-8f63-56091b8a5e49</t>
         </is>
       </c>
-      <c r="AB7" s="2" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>Smith, Lewis and Contreras</t>
         </is>
       </c>
-      <c r="AC7" s="2" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AD7" s="2" t="n">
+      <c r="AD7" t="n">
         <v>0.73</v>
       </c>
-      <c r="AE7" s="2" t="n">
+      <c r="AE7" t="n">
         <v>2.86</v>
       </c>
-      <c r="AF7" s="2" t="n">
+      <c r="AF7" t="n">
         <v>395983983</v>
       </c>
-      <c r="AG7" s="2" t="n">
+      <c r="AG7" t="n">
         <v>62424518.88</v>
       </c>
-      <c r="AH7" s="2" t="n">
+      <c r="AH7" t="n">
         <v>80765395.66</v>
       </c>
-      <c r="AI7" s="2" t="n">
+      <c r="AI7" t="n">
         <v>38633214.12</v>
       </c>
-      <c r="AJ7" s="2" t="n">
+      <c r="AJ7" t="n">
         <v>357587093</v>
       </c>
-      <c r="AK7" s="2" t="n">
+      <c r="AK7" t="n">
         <v>40729410.51</v>
       </c>
-      <c r="AL7" s="2" t="n">
+      <c r="AL7" t="n">
         <v>10211446.33</v>
       </c>
-      <c r="AM7" s="2" t="n">
+      <c r="AM7" t="n">
         <v>9.369999999999999</v>
       </c>
-      <c r="AN7" s="2" t="n">
+      <c r="AN7" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1712,22 +1938,22 @@
       <c r="A8" s="2" t="n">
         <v>28345700000000</v>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>3ce9f12c-8d8e-476f-a81a-23db1c0b5213</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Martinez Ltd</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Michaelview</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>BA</t>
         </is>
@@ -1735,7 +1961,7 @@
       <c r="F8" s="2" t="n">
         <v>6197</v>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -1745,12 +1971,12 @@
           <t>418-76-6498</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>LSE</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>hiq</t>
         </is>
@@ -1760,35 +1986,35 @@
           <t>JtrGcv</t>
         </is>
       </c>
-      <c r="L8" s="2" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>dd1633d7-0615-4304-964c-4545463a60ee</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>27-10-2021</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>07-01-2035</t>
         </is>
       </c>
-      <c r="O8" s="2" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="P8" s="2" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>Working Capital</t>
         </is>
       </c>
-      <c r="Q8" s="2" t="n">
+      <c r="Q8" t="n">
         <v>36787659.22</v>
       </c>
-      <c r="R8" s="2" t="n">
+      <c r="R8" t="n">
         <v>73539555.18000001</v>
       </c>
       <c r="S8" s="2" t="n">
@@ -1799,82 +2025,82 @@
           <t>Equipment</t>
         </is>
       </c>
-      <c r="U8" s="2" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="V8" s="2" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>Annually</t>
         </is>
       </c>
-      <c r="W8" s="2" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>INR</t>
         </is>
       </c>
-      <c r="X8" s="2" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="Y8" s="2" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Z8" s="2" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>Retained</t>
         </is>
       </c>
-      <c r="AA8" s="2" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>df651fd3-6953-4d4f-8c73-bd161afa7b37</t>
         </is>
       </c>
-      <c r="AB8" s="2" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>Mendez, Collins and Nguyen</t>
         </is>
       </c>
-      <c r="AC8" s="2" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="AD8" s="2" t="n">
+      <c r="AD8" t="n">
         <v>1.03</v>
       </c>
-      <c r="AE8" s="2" t="n">
+      <c r="AE8" t="n">
         <v>1.22</v>
       </c>
-      <c r="AF8" s="2" t="n">
+      <c r="AF8" t="n">
         <v>66196202.67</v>
       </c>
-      <c r="AG8" s="2" t="n">
+      <c r="AG8" t="n">
         <v>355967893</v>
       </c>
-      <c r="AH8" s="2" t="n">
+      <c r="AH8" t="n">
         <v>99485689.37</v>
       </c>
-      <c r="AI8" s="2" t="n">
+      <c r="AI8" t="n">
         <v>12237839.84</v>
       </c>
-      <c r="AJ8" s="2" t="n">
+      <c r="AJ8" t="n">
         <v>337813878.6</v>
       </c>
-      <c r="AK8" s="2" t="n">
+      <c r="AK8" t="n">
         <v>78824972.5</v>
       </c>
-      <c r="AL8" s="2" t="n">
+      <c r="AL8" t="n">
         <v>13252269.4</v>
       </c>
-      <c r="AM8" s="2" t="n">
+      <c r="AM8" t="n">
         <v>6.08</v>
       </c>
-      <c r="AN8" s="2" t="n">
+      <c r="AN8" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1882,22 +2108,22 @@
       <c r="A9" s="2" t="n">
         <v>37629100000000</v>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>dbb5bf9c-975c-4cf1-b493-cec80aa8c9dd</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Davenport Inc</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Jonesburgh</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>BE</t>
         </is>
@@ -1905,7 +2131,7 @@
       <c r="F9" s="2" t="n">
         <v>7922</v>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -1915,12 +2141,12 @@
           <t>617-78-1101</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>LSE</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>jdE</t>
         </is>
@@ -1930,117 +2156,116 @@
           <t>YaJkhL</t>
         </is>
       </c>
-      <c r="L9" s="2" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>b2aadd4b-f034-4936-b1bc-0bc077f57756</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>16-06-2023</t>
         </is>
       </c>
-      <c r="N9" s="2" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>18-02-2030</t>
         </is>
       </c>
-      <c r="O9" s="2" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>Bridge Loan</t>
         </is>
       </c>
-      <c r="P9" s="2" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>Refinancing</t>
         </is>
       </c>
-      <c r="Q9" s="2" t="n">
+      <c r="Q9" t="n">
         <v>98519519.33</v>
       </c>
-      <c r="R9" s="2" t="n">
+      <c r="R9" t="n">
         <v>83846458.68000001</v>
       </c>
-      <c r="S9" s="2" t="n">
+      <c r="S9" t="n">
         <v>6.55</v>
       </c>
-      <c r="T9" s="2" t="inlineStr"/>
-      <c r="U9" s="2" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>Defaulted</t>
         </is>
       </c>
-      <c r="V9" s="2" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>Annually</t>
         </is>
       </c>
-      <c r="W9" s="2" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>GBP</t>
         </is>
       </c>
-      <c r="X9" s="2" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>BB</t>
         </is>
       </c>
-      <c r="Y9" s="2" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Z9" s="2" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>Disposed</t>
         </is>
       </c>
-      <c r="AA9" s="2" t="inlineStr">
+      <c r="AA9" t="inlineStr">
         <is>
           <t>1f3c32ae-2419-4b6a-93b5-8078ef799d45</t>
         </is>
       </c>
-      <c r="AB9" s="2" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>Carey and Sons</t>
         </is>
       </c>
-      <c r="AC9" s="2" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="AD9" s="2" t="n">
+      <c r="AD9" t="n">
         <v>1.08</v>
       </c>
-      <c r="AE9" s="2" t="n">
+      <c r="AE9" t="n">
         <v>1.43</v>
       </c>
-      <c r="AF9" s="2" t="n">
+      <c r="AF9" t="n">
         <v>58823388.81</v>
       </c>
-      <c r="AG9" s="2" t="n">
+      <c r="AG9" t="n">
         <v>267077344.9</v>
       </c>
-      <c r="AH9" s="2" t="n">
+      <c r="AH9" t="n">
         <v>30948149.11</v>
       </c>
-      <c r="AI9" s="2" t="n">
+      <c r="AI9" t="n">
         <v>1559826.73</v>
       </c>
-      <c r="AJ9" s="2" t="n">
+      <c r="AJ9" t="n">
         <v>309303560</v>
       </c>
-      <c r="AK9" s="2" t="n">
+      <c r="AK9" t="n">
         <v>41207930.04</v>
       </c>
-      <c r="AL9" s="2" t="n">
+      <c r="AL9" t="n">
         <v>20248808.13</v>
       </c>
-      <c r="AM9" s="2" t="n">
+      <c r="AM9" t="n">
         <v>3.24</v>
       </c>
-      <c r="AN9" s="2" t="n">
+      <c r="AN9" t="n">
         <v>0.26</v>
       </c>
     </row>

--- a/code/src/backend/temp/violations_output.xlsx
+++ b/code/src/backend/temp/violations_output.xlsx
@@ -151,14 +151,14 @@
   <commentList>
     <comment ref="A2" authorId="0" shapeId="0">
       <text>
-        <t>Violation: Invalid format, contains a decimal and is not a string.
-Remediation: Remove the decimal and convert to string.</t>
+        <t>Violation: Invalid format, contains a decimal and exceeds the maximum value of 50.
+Remediation: Remove the decimal, convert to an integer, and ensure it's less than 50.</t>
       </text>
     </comment>
     <comment ref="E2" authorId="0" shapeId="0">
       <text>
-        <t>Violation: Invalid format, should be a 2-letter ISO 3166-1 alpha-2 code.
-Remediation: Correct the country code to a valid ISO 3166-1 alpha-2 code.</t>
+        <t>Violation: Invalid format, must be a valid two-letter ISO 3166-1 alpha-2 code.
+Remediation: Correct the country code to a valid two-letter ISO 3166-1 alpha-2 code.</t>
       </text>
     </comment>
     <comment ref="F2" authorId="0" shapeId="0">
@@ -179,6 +179,24 @@
 Remediation: Ensure the format matches the requirements.</t>
       </text>
     </comment>
+    <comment ref="M2" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, needs to be yyyy-mm-dd.
+Remediation: Convert to yyyy-mm-dd format.</t>
+      </text>
+    </comment>
+    <comment ref="Q2" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="R2" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
     <comment ref="S2" authorId="0" shapeId="0">
       <text>
         <t>Violation: Invalid format, should be a decimal.
@@ -187,20 +205,68 @@
     </comment>
     <comment ref="T2" authorId="0" shapeId="0">
       <text>
-        <t>Violation: Invalid format, should be an integer based on the predefined codes.
+        <t>Violation: Invalid format, should be an integer.
 Remediation: Convert to integer based on the predefined codes.</t>
       </text>
     </comment>
     <comment ref="Y2" authorId="0" shapeId="0">
       <text>
-        <t>Violation: Invalid format, should be an integer based on the predefined codes.
+        <t>Violation: Invalid format, should be an integer.
 Remediation: Convert to integer based on the predefined codes.</t>
       </text>
     </comment>
+    <comment ref="Z2" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be an integer.
+Remediation: Convert to integer based on the predefined codes.</t>
+      </text>
+    </comment>
+    <comment ref="AF2" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AG2" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AH2" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AI2" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AJ2" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AK2" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
     <comment ref="A3" authorId="0" shapeId="0">
       <text>
-        <t>Violation: Invalid format, contains a decimal and is not a string.
-Remediation: Remove the decimal and convert to string.</t>
+        <t>Violation: Invalid format, contains a decimal and exceeds the maximum value of 50.
+Remediation: Remove the decimal, convert to an integer, and ensure it's less than 50.</t>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, must be a valid two-letter ISO 3166-1 alpha-2 code.
+Remediation: Correct the country code to a valid two-letter ISO 3166-1 alpha-2 code.</t>
       </text>
     </comment>
     <comment ref="F3" authorId="0" shapeId="0">
@@ -209,154 +275,394 @@
 Remediation: Verify the code against NAICS/SIC/GICS databases.</t>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="K3" authorId="0" shapeId="0">
       <text>
         <t>Violation: Invalid format.
 Remediation: Ensure the format matches the requirements.</t>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0">
+    <comment ref="M3" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, needs to be yyyy-mm-dd.
+Remediation: Convert to yyyy-mm-dd format.</t>
+      </text>
+    </comment>
+    <comment ref="Q3" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="R3" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="S3" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a decimal.
+Remediation: Convert to decimal format (e.g., 0.0214).</t>
+      </text>
+    </comment>
+    <comment ref="T3" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be an integer.
+Remediation: Convert to integer based on the predefined codes.</t>
+      </text>
+    </comment>
+    <comment ref="Y3" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be an integer.
+Remediation: Convert to integer based on the predefined codes.</t>
+      </text>
+    </comment>
+    <comment ref="Z3" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be an integer.
+Remediation: Convert to integer based on the predefined codes.</t>
+      </text>
+    </comment>
+    <comment ref="AF3" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AG3" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AH3" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AI3" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AJ3" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AK3" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, contains a decimal and exceeds the maximum value of 50.
+Remediation: Remove the decimal, convert to an integer, and ensure it's less than 50.</t>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, must be a valid two-letter ISO 3166-1 alpha-2 code.
+Remediation: Correct the country code to a valid two-letter ISO 3166-1 alpha-2 code.</t>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Potentially valid, requires NAICS/SIC/GICS lookup verification.
+Remediation: Verify the code against NAICS/SIC/GICS databases.</t>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <t>Violation: Invalid format.
 Remediation: Ensure the format matches the requirements.</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
-      <text>
-        <t>Violation: Invalid format, contains a decimal and is not a string.
-Remediation: Remove the decimal and convert to string.</t>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
-      <text>
-        <t>Violation: Invalid format, should be a 2-letter ISO 3166-1 alpha-2 code.
-Remediation: Correct the country code to a valid ISO 3166-1 alpha-2 code.</t>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="Q4" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="R4" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="S4" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a decimal.
+Remediation: Convert to decimal format (e.g., 0.029).</t>
+      </text>
+    </comment>
+    <comment ref="T4" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be an integer.
+Remediation: Convert to integer based on the predefined codes.</t>
+      </text>
+    </comment>
+    <comment ref="Y4" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be an integer.
+Remediation: Convert to integer based on the predefined codes.</t>
+      </text>
+    </comment>
+    <comment ref="AF4" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AG4" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AH4" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AI4" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AJ4" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AK4" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, contains a decimal and exceeds the maximum value of 50.
+Remediation: Remove the decimal, convert to an integer, and ensure it's less than 50.</t>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, must be a valid two-letter ISO 3166-1 alpha-2 code.
+Remediation: Correct the country code to a valid two-letter ISO 3166-1 alpha-2 code.</t>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <t>Violation: Potentially valid, requires NAICS/SIC/GICS lookup verification.
 Remediation: Verify the code against NAICS/SIC/GICS databases.</t>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="K5" authorId="0" shapeId="0">
       <text>
         <t>Violation: Invalid format.
 Remediation: Ensure the format matches the requirements.</t>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0">
+    <comment ref="Q5" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="R5" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="S5" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a decimal.
+Remediation: Convert to decimal format (e.g., 0.089).</t>
+      </text>
+    </comment>
+    <comment ref="T5" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be an integer.
+Remediation: Convert to integer based on the predefined codes.</t>
+      </text>
+    </comment>
+    <comment ref="Y5" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be an integer.
+Remediation: Convert to integer based on the predefined codes.</t>
+      </text>
+    </comment>
+    <comment ref="AF5" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AG5" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AH5" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AI5" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AJ5" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AK5" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, contains a decimal and exceeds the maximum value of 50.
+Remediation: Remove the decimal, convert to an integer, and ensure it's less than 50.</t>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, must be a valid two-letter ISO 3166-1 alpha-2 code.
+Remediation: Correct the country code to a valid two-letter ISO 3166-1 alpha-2 code.</t>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Potentially valid, requires NAICS/SIC/GICS lookup verification.
+Remediation: Verify the code against NAICS/SIC/GICS databases.</t>
+      </text>
+    </comment>
+    <comment ref="K6" authorId="0" shapeId="0">
       <text>
         <t>Violation: Invalid format.
 Remediation: Ensure the format matches the requirements.</t>
       </text>
     </comment>
-    <comment ref="S4" authorId="0" shapeId="0">
+    <comment ref="Q6" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="R6" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="S6" authorId="0" shapeId="0">
       <text>
         <t>Violation: Invalid format, should be a decimal.
-Remediation: Convert to decimal format (e.g., 0.029).</t>
-      </text>
-    </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
-      <text>
-        <t>Violation: Invalid format, contains a decimal and is not a string.
-Remediation: Remove the decimal and convert to string.</t>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
-      <text>
-        <t>Violation: Invalid format, should be a 2-letter ISO 3166-1 alpha-2 code.
-Remediation: Correct the country code to a valid ISO 3166-1 alpha-2 code.</t>
-      </text>
-    </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+Remediation: Convert to decimal format (e.g., 0.1018).</t>
+      </text>
+    </comment>
+    <comment ref="T6" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be an integer.
+Remediation: Convert to integer based on the predefined codes.</t>
+      </text>
+    </comment>
+    <comment ref="Y6" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be an integer.
+Remediation: Convert to integer based on the predefined codes.</t>
+      </text>
+    </comment>
+    <comment ref="AF6" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AG6" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AH6" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AI6" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AJ6" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AK6" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, contains a decimal and exceeds the maximum value of 50.
+Remediation: Remove the decimal, convert to an integer, and ensure it's less than 50.</t>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <t>Violation: Potentially valid, requires NAICS/SIC/GICS lookup verification.
 Remediation: Verify the code against NAICS/SIC/GICS databases.</t>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <t>Violation: Invalid format.
 Remediation: Ensure the format matches the requirements.</t>
       </text>
     </comment>
-    <comment ref="K5" authorId="0" shapeId="0">
+    <comment ref="K7" authorId="0" shapeId="0">
       <text>
         <t>Violation: Invalid format.
 Remediation: Ensure the format matches the requirements.</t>
       </text>
     </comment>
-    <comment ref="M5" authorId="0" shapeId="0">
-      <text>
-        <t>Violation: Invalid format, should be yyyy-mm-dd.
-Remediation: Change date format to yyyy-mm-dd.</t>
-      </text>
-    </comment>
-    <comment ref="N5" authorId="0" shapeId="0">
-      <text>
-        <t>Violation: Invalid format, should be yyyy-mm-dd.
-Remediation: Change date format to yyyy-mm-dd.</t>
-      </text>
-    </comment>
-    <comment ref="A6" authorId="0" shapeId="0">
-      <text>
-        <t>Violation: Invalid format, contains a decimal and is not a string.
-Remediation: Remove the decimal and convert to string.</t>
-      </text>
-    </comment>
-    <comment ref="E6" authorId="0" shapeId="0">
-      <text>
-        <t>Violation: Invalid format, should be a 2-letter ISO 3166-1 alpha-2 code.
-Remediation: Correct the country code to a valid ISO 3166-1 alpha-2 code.</t>
-      </text>
-    </comment>
-    <comment ref="F6" authorId="0" shapeId="0">
-      <text>
-        <t>Violation: Potentially valid, requires NAICS/SIC/GICS lookup verification.
-Remediation: Verify the code against NAICS/SIC/GICS databases.</t>
-      </text>
-    </comment>
-    <comment ref="H6" authorId="0" shapeId="0">
-      <text>
-        <t>Violation: Invalid format.
-Remediation: Ensure the format matches the requirements.</t>
-      </text>
-    </comment>
-    <comment ref="K6" authorId="0" shapeId="0">
-      <text>
-        <t>Violation: Invalid format.
-Remediation: Ensure the format matches the requirements.</t>
-      </text>
-    </comment>
-    <comment ref="A7" authorId="0" shapeId="0">
-      <text>
-        <t>Violation: Invalid format, contains a decimal and is not a string.
-Remediation: Remove the decimal and convert to string.</t>
-      </text>
-    </comment>
-    <comment ref="E7" authorId="0" shapeId="0">
-      <text>
-        <t>Violation: Invalid format, should be a 2-letter ISO 3166-1 alpha-2 code.
-Remediation: Correct the country code to a valid ISO 3166-1 alpha-2 code.</t>
-      </text>
-    </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
-      <text>
-        <t>Violation: Potentially valid, requires NAICS/SIC/GICS lookup verification.
-Remediation: Verify the code against NAICS/SIC/GICS databases.</t>
-      </text>
-    </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
-      <text>
-        <t>Violation: Invalid format.
-Remediation: Ensure the format matches the requirements.</t>
-      </text>
-    </comment>
-    <comment ref="K7" authorId="0" shapeId="0">
-      <text>
-        <t>Violation: Invalid format.
-Remediation: Ensure the format matches the requirements.</t>
+    <comment ref="Q7" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="R7" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
       </text>
     </comment>
     <comment ref="S7" authorId="0" shapeId="0">
@@ -365,28 +671,76 @@
 Remediation: Convert to decimal format (e.g., 0.0512).</t>
       </text>
     </comment>
+    <comment ref="T7" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be an integer.
+Remediation: Convert to integer based on the predefined codes.</t>
+      </text>
+    </comment>
+    <comment ref="Y7" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be an integer.
+Remediation: Convert to integer based on the predefined codes.</t>
+      </text>
+    </comment>
+    <comment ref="AF7" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AG7" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AH7" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AI7" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AJ7" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AK7" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AL7" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
     <comment ref="A8" authorId="0" shapeId="0">
       <text>
-        <t>Violation: Invalid format, contains a decimal and is not a string.
-Remediation: Remove the decimal and convert to string.</t>
-      </text>
-    </comment>
-    <comment ref="F8" authorId="0" shapeId="0">
-      <text>
-        <t>Violation: Potentially valid, requires NAICS/SIC/GICS lookup verification.
-Remediation: Verify the code against NAICS/SIC/GICS databases.</t>
-      </text>
-    </comment>
-    <comment ref="H8" authorId="0" shapeId="0">
-      <text>
-        <t>Violation: Invalid format.
-Remediation: Ensure the format matches the requirements.</t>
-      </text>
-    </comment>
-    <comment ref="K8" authorId="0" shapeId="0">
-      <text>
-        <t>Violation: Invalid format.
-Remediation: Ensure the format matches the requirements.</t>
+        <t>Violation: Invalid format, contains a decimal and exceeds the maximum value of 50.
+Remediation: Remove the decimal, convert to an integer, and ensure it's less than 50.</t>
+      </text>
+    </comment>
+    <comment ref="Q8" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="R8" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
       </text>
     </comment>
     <comment ref="S8" authorId="0" shapeId="0">
@@ -397,32 +751,116 @@
     </comment>
     <comment ref="T8" authorId="0" shapeId="0">
       <text>
-        <t>Violation: Invalid format, should be an integer based on the predefined codes.
+        <t>Violation: Invalid format, should be an integer.
 Remediation: Convert to integer based on the predefined codes.</t>
       </text>
     </comment>
+    <comment ref="AF8" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AG8" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AH8" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AI8" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AJ8" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AK8" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AL8" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
     <comment ref="A9" authorId="0" shapeId="0">
       <text>
-        <t>Violation: Invalid format, contains a decimal and is not a string.
-Remediation: Remove the decimal and convert to string.</t>
-      </text>
-    </comment>
-    <comment ref="F9" authorId="0" shapeId="0">
-      <text>
-        <t>Violation: Potentially valid, requires NAICS/SIC/GICS lookup verification.
-Remediation: Verify the code against NAICS/SIC/GICS databases.</t>
-      </text>
-    </comment>
-    <comment ref="H9" authorId="0" shapeId="0">
-      <text>
-        <t>Violation: Invalid format.
-Remediation: Ensure the format matches the requirements.</t>
-      </text>
-    </comment>
-    <comment ref="K9" authorId="0" shapeId="0">
-      <text>
-        <t>Violation: Invalid format.
-Remediation: Ensure the format matches the requirements.</t>
+        <t>Violation: Invalid format, contains a decimal and exceeds the maximum value of 50.
+Remediation: Remove the decimal, convert to an integer, and ensure it's less than 50.</t>
+      </text>
+    </comment>
+    <comment ref="Q9" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="R9" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="S9" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a decimal.
+Remediation: Convert to decimal format (e.g., 0.018).</t>
+      </text>
+    </comment>
+    <comment ref="T9" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be an integer.
+Remediation: Convert to integer based on the predefined codes.</t>
+      </text>
+    </comment>
+    <comment ref="AF9" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AG9" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AH9" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AI9" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AJ9" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
+      </text>
+    </comment>
+    <comment ref="AK9" authorId="0" shapeId="0">
+      <text>
+        <t>Violation: Invalid format, should be a whole dollar amount.
+Remediation: Round to the nearest whole dollar.</t>
       </text>
     </comment>
   </commentList>
@@ -980,7 +1418,7 @@
           <t>3b531ed9-6ace-4faf-8683-85598b2e2fd2</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" s="2" t="inlineStr">
         <is>
           <t>14-08-2024</t>
         </is>
@@ -1000,10 +1438,10 @@
           <t>Acquisition</t>
         </is>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" s="2" t="n">
         <v>26629895.3</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" s="2" t="n">
         <v>70799498.06999999</v>
       </c>
       <c r="S2" s="2" t="n">
@@ -1035,7 +1473,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="Z2" s="2" t="inlineStr">
         <is>
           <t>Retained</t>
         </is>
@@ -1061,22 +1499,22 @@
       <c r="AE2" t="n">
         <v>1.75</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="2" t="n">
         <v>50399385.08</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="2" t="n">
         <v>95469736.56</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="2" t="n">
         <v>59033485.2</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="2" t="n">
         <v>7797067.51</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="2" t="n">
         <v>238515116</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="2" t="n">
         <v>34200502.62</v>
       </c>
       <c r="AL2" t="n">
@@ -1108,7 +1546,7 @@
           <t>West Justin</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>AO</t>
         </is>
@@ -1121,7 +1559,7 @@
           <t>E</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>313-51-2957</t>
         </is>
@@ -1146,7 +1584,7 @@
           <t>b10f0d6a-b4ad-405c-9a4f-4f02119be381</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" s="2" t="inlineStr">
         <is>
           <t>18-02-2022</t>
         </is>
@@ -1166,15 +1604,16 @@
           <t>Working Capital</t>
         </is>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="2" t="n">
         <v>55748379.42</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="2" t="n">
         <v>2783436.06</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="2" t="n">
         <v>9.76</v>
       </c>
+      <c r="T3" s="2" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
           <t>Closed</t>
@@ -1195,12 +1634,12 @@
           <t>B</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Y3" s="2" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="Z3" s="2" t="inlineStr">
         <is>
           <t>Retained</t>
         </is>
@@ -1226,22 +1665,22 @@
       <c r="AE3" t="n">
         <v>2</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="2" t="n">
         <v>435705344.2</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="2" t="n">
         <v>47117668.95</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="2" t="n">
         <v>80132376.18000001</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="2" t="n">
         <v>7141931.68</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="2" t="n">
         <v>319616293</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="2" t="n">
         <v>156044133.2</v>
       </c>
       <c r="AL3" t="n">
@@ -1286,7 +1725,7 @@
           <t>C</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>310-37-1725</t>
         </is>
@@ -1331,16 +1770,16 @@
           <t>Expansion</t>
         </is>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="2" t="n">
         <v>97602997.48</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="2" t="n">
         <v>80537734.2</v>
       </c>
       <c r="S4" s="2" t="n">
         <v>2.14</v>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="T4" s="2" t="inlineStr">
         <is>
           <t>Equipment</t>
         </is>
@@ -1365,7 +1804,7 @@
           <t>A</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Y4" s="2" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1396,22 +1835,22 @@
       <c r="AE4" t="n">
         <v>2.38</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4" s="2" t="n">
         <v>403948022.4</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4" s="2" t="n">
         <v>8926425.41</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4" s="2" t="n">
         <v>86863480.34</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4" s="2" t="n">
         <v>1955854.73</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4" s="2" t="n">
         <v>451241665.5</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4" s="2" t="n">
         <v>160851816.4</v>
       </c>
       <c r="AL4" t="n">
@@ -1456,7 +1895,7 @@
           <t>E</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>447-80-2607</t>
         </is>
@@ -1481,12 +1920,12 @@
           <t>d101c317-a06e-4a8f-8e63-d921c33b1a59</t>
         </is>
       </c>
-      <c r="M5" s="2" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>26-08-2023</t>
         </is>
       </c>
-      <c r="N5" s="2" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>19-11-2029</t>
         </is>
@@ -1501,16 +1940,16 @@
           <t>Expansion</t>
         </is>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" s="2" t="n">
         <v>19714396.46</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" s="2" t="n">
         <v>39263759.32</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5" s="2" t="n">
         <v>2.9</v>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="T5" s="2" t="inlineStr">
         <is>
           <t>Real Estate</t>
         </is>
@@ -1535,7 +1974,7 @@
           <t>CCC</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Y5" s="2" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1566,22 +2005,22 @@
       <c r="AE5" t="n">
         <v>2.9</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="2" t="n">
         <v>92416015.06</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" s="2" t="n">
         <v>213720317.6</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" s="2" t="n">
         <v>59098537.91</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="2" t="n">
         <v>6667902.48</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="2" t="n">
         <v>22780570.2</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="2" t="n">
         <v>100793798.8</v>
       </c>
       <c r="AL5" t="n">
@@ -1626,7 +2065,7 @@
           <t>A</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>705-09-9417</t>
         </is>
@@ -1671,16 +2110,16 @@
           <t>Refinancing</t>
         </is>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" s="2" t="n">
         <v>17232454.13</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" s="2" t="n">
         <v>86223792.98999999</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6" s="2" t="n">
         <v>8.9</v>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="T6" s="2" t="inlineStr">
         <is>
           <t>Equipment</t>
         </is>
@@ -1705,7 +2144,7 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Y6" s="2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1736,22 +2175,22 @@
       <c r="AE6" t="n">
         <v>2.52</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="2" t="n">
         <v>133472482.2</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="2" t="n">
         <v>294279690.6</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" s="2" t="n">
         <v>70419654.54000001</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="2" t="n">
         <v>4335752.01</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" s="2" t="n">
         <v>391850032.4</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="2" t="n">
         <v>123734826.9</v>
       </c>
       <c r="AL6" t="n">
@@ -1783,7 +2222,7 @@
           <t>Martinfort</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>IS</t>
         </is>
@@ -1841,16 +2280,16 @@
           <t>Refinancing</t>
         </is>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7" s="2" t="n">
         <v>15850912.22</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7" s="2" t="n">
         <v>76069643.34999999</v>
       </c>
       <c r="S7" s="2" t="n">
         <v>10.18</v>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="T7" s="2" t="inlineStr">
         <is>
           <t>Real Estate</t>
         </is>
@@ -1875,7 +2314,7 @@
           <t>CCC</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Y7" s="2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1906,25 +2345,25 @@
       <c r="AE7" t="n">
         <v>2.86</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7" s="2" t="n">
         <v>395983983</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7" s="2" t="n">
         <v>62424518.88</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7" s="2" t="n">
         <v>80765395.66</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7" s="2" t="n">
         <v>38633214.12</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7" s="2" t="n">
         <v>357587093</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7" s="2" t="n">
         <v>40729410.51</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7" s="2" t="n">
         <v>10211446.33</v>
       </c>
       <c r="AM7" t="n">
@@ -1958,7 +2397,7 @@
           <t>BA</t>
         </is>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" t="n">
         <v>6197</v>
       </c>
       <c r="G8" t="inlineStr">
@@ -1966,7 +2405,7 @@
           <t>D</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>418-76-6498</t>
         </is>
@@ -1981,7 +2420,7 @@
           <t>hiq</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>JtrGcv</t>
         </is>
@@ -2011,10 +2450,10 @@
           <t>Working Capital</t>
         </is>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8" s="2" t="n">
         <v>36787659.22</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8" s="2" t="n">
         <v>73539555.18000001</v>
       </c>
       <c r="S8" s="2" t="n">
@@ -2076,25 +2515,25 @@
       <c r="AE8" t="n">
         <v>1.22</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8" s="2" t="n">
         <v>66196202.67</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8" s="2" t="n">
         <v>355967893</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8" s="2" t="n">
         <v>99485689.37</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8" s="2" t="n">
         <v>12237839.84</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8" s="2" t="n">
         <v>337813878.6</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8" s="2" t="n">
         <v>78824972.5</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8" s="2" t="n">
         <v>13252269.4</v>
       </c>
       <c r="AM8" t="n">
@@ -2128,7 +2567,7 @@
           <t>BE</t>
         </is>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" t="n">
         <v>7922</v>
       </c>
       <c r="G9" t="inlineStr">
@@ -2136,7 +2575,7 @@
           <t>D</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>617-78-1101</t>
         </is>
@@ -2151,7 +2590,7 @@
           <t>jdE</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>YaJkhL</t>
         </is>
@@ -2181,15 +2620,16 @@
           <t>Refinancing</t>
         </is>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="2" t="n">
         <v>98519519.33</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="2" t="n">
         <v>83846458.68000001</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="2" t="n">
         <v>6.55</v>
       </c>
+      <c r="T9" s="2" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
           <t>Defaulted</t>
@@ -2241,22 +2681,22 @@
       <c r="AE9" t="n">
         <v>1.43</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9" s="2" t="n">
         <v>58823388.81</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9" s="2" t="n">
         <v>267077344.9</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH9" s="2" t="n">
         <v>30948149.11</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI9" s="2" t="n">
         <v>1559826.73</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ9" s="2" t="n">
         <v>309303560</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AK9" s="2" t="n">
         <v>41207930.04</v>
       </c>
       <c r="AL9" t="n">
